--- a/chargingdata/202504-202504.xlsx
+++ b/chargingdata/202504-202504.xlsx
@@ -780,13 +780,112 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -798,67 +897,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -888,82 +945,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1274,7 +1274,7 @@
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1300,57 +1300,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="101"/>
+      <c r="M2" s="51"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="104"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
     </row>
     <row r="4" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -1374,10 +1374,10 @@
       <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="55"/>
+      <c r="I4" s="47"/>
       <c r="J4" s="3" t="s">
         <v>12</v>
       </c>
@@ -1392,7 +1392,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="45" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1413,10 +1413,10 @@
       <c r="G5" s="5">
         <v>7805.02</v>
       </c>
-      <c r="H5" s="53">
+      <c r="H5" s="46">
         <v>10673</v>
       </c>
-      <c r="I5" s="55"/>
+      <c r="I5" s="47"/>
       <c r="J5" s="2"/>
       <c r="K5" s="6">
         <v>2518.02</v>
@@ -1429,7 +1429,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="105"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1448,10 +1448,10 @@
       <c r="G6" s="5">
         <v>2458.29</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="46">
         <v>3451</v>
       </c>
-      <c r="I6" s="55"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="2"/>
       <c r="K6" s="6">
         <v>850.07</v>
@@ -1464,7 +1464,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="105"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
@@ -1483,10 +1483,10 @@
       <c r="G7" s="10">
         <v>166.92</v>
       </c>
-      <c r="H7" s="106">
+      <c r="H7" s="48">
         <v>236</v>
       </c>
-      <c r="I7" s="84"/>
+      <c r="I7" s="49"/>
       <c r="J7" s="9"/>
       <c r="K7" s="6">
         <v>52.77</v>
@@ -1500,11 +1500,11 @@
       <c r="N7" s="11"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="99"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="12">
         <v>352364.79999999999</v>
       </c>
@@ -1517,10 +1517,10 @@
       <c r="G8" s="12">
         <v>10430.23</v>
       </c>
-      <c r="H8" s="92">
+      <c r="H8" s="59">
         <v>14360</v>
       </c>
-      <c r="I8" s="61"/>
+      <c r="I8" s="60"/>
       <c r="J8" s="13"/>
       <c r="K8" s="14">
         <v>3420.86</v>
@@ -1535,10 +1535,10 @@
       <c r="O8" s="16"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="63" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1556,10 +1556,10 @@
       <c r="G9" s="5">
         <v>702.2</v>
       </c>
-      <c r="H9" s="53">
+      <c r="H9" s="46">
         <v>1037</v>
       </c>
-      <c r="I9" s="55"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="2"/>
       <c r="K9" s="6">
         <v>208.47</v>
@@ -1574,8 +1574,8 @@
       <c r="P9" s="16"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="82"/>
-      <c r="B10" s="89"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
@@ -1591,10 +1591,10 @@
       <c r="G10" s="5">
         <v>1770.88</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="46">
         <v>2585</v>
       </c>
-      <c r="I10" s="55"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="2"/>
       <c r="K10" s="6">
         <v>535.1</v>
@@ -1610,11 +1610,11 @@
       <c r="Q10" s="16"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="12">
         <v>104896.52</v>
       </c>
@@ -1627,10 +1627,10 @@
       <c r="G11" s="12">
         <v>2473.08</v>
       </c>
-      <c r="H11" s="92">
+      <c r="H11" s="59">
         <v>3622</v>
       </c>
-      <c r="I11" s="61"/>
+      <c r="I11" s="60"/>
       <c r="J11" s="12">
         <v>0</v>
       </c>
@@ -1646,11 +1646,11 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="69"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="17">
         <v>457261.32</v>
       </c>
@@ -1663,10 +1663,10 @@
       <c r="G12" s="17">
         <v>12903.31</v>
       </c>
-      <c r="H12" s="93">
+      <c r="H12" s="71">
         <v>17982</v>
       </c>
-      <c r="I12" s="69"/>
+      <c r="I12" s="70"/>
       <c r="J12" s="17">
         <v>0</v>
       </c>
@@ -1682,30 +1682,30 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="96"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="74"/>
     </row>
     <row r="14" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="55"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="3" t="s">
         <v>38</v>
       </c>
@@ -1718,10 +1718,10 @@
       <c r="G14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="87" t="s">
+      <c r="H14" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="55"/>
+      <c r="I14" s="47"/>
       <c r="J14" s="2" t="s">
         <v>43</v>
       </c>
@@ -1736,13 +1736,13 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="89"/>
+      <c r="C15" s="63"/>
       <c r="D15" s="2">
         <v>291780</v>
       </c>
@@ -1755,10 +1755,10 @@
       <c r="G15" s="5">
         <v>31160.84</v>
       </c>
-      <c r="H15" s="90">
+      <c r="H15" s="76">
         <v>1038.69</v>
       </c>
-      <c r="I15" s="91"/>
+      <c r="I15" s="77"/>
       <c r="J15" s="22">
         <v>0.10680000000000001</v>
       </c>
@@ -1773,11 +1773,11 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="82"/>
-      <c r="B16" s="88" t="s">
+      <c r="A16" s="62"/>
+      <c r="B16" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="89"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="2">
         <v>98970</v>
       </c>
@@ -1790,10 +1790,10 @@
       <c r="G16" s="5">
         <v>12725.72</v>
       </c>
-      <c r="H16" s="90">
+      <c r="H16" s="76">
         <v>424.19</v>
       </c>
-      <c r="I16" s="91"/>
+      <c r="I16" s="77"/>
       <c r="J16" s="22">
         <v>0.12859999999999999</v>
       </c>
@@ -1809,11 +1809,11 @@
       <c r="O16" s="24"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="12">
         <v>390750</v>
       </c>
@@ -1826,10 +1826,10 @@
       <c r="G17" s="12">
         <v>43886.559999999998</v>
       </c>
-      <c r="H17" s="65">
+      <c r="H17" s="66">
         <v>1462.89</v>
       </c>
-      <c r="I17" s="66"/>
+      <c r="I17" s="67"/>
       <c r="J17" s="25">
         <v>0.1123</v>
       </c>
@@ -1847,10 +1847,10 @@
       <c r="A18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="13">
         <v>116880</v>
       </c>
@@ -1863,10 +1863,10 @@
       <c r="G18" s="12">
         <v>11983.48</v>
       </c>
-      <c r="H18" s="65">
+      <c r="H18" s="66">
         <v>399.45</v>
       </c>
-      <c r="I18" s="66"/>
+      <c r="I18" s="67"/>
       <c r="J18" s="25">
         <v>0.10249999999999999</v>
       </c>
@@ -1881,11 +1881,11 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="69"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="70"/>
       <c r="D19" s="17">
         <v>507630</v>
       </c>
@@ -1898,10 +1898,10 @@
       <c r="G19" s="17">
         <v>55870.04</v>
       </c>
-      <c r="H19" s="70">
+      <c r="H19" s="79">
         <v>1862.33</v>
       </c>
-      <c r="I19" s="71"/>
+      <c r="I19" s="80"/>
       <c r="J19" s="28">
         <v>0.1101</v>
       </c>
@@ -1916,30 +1916,30 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="50"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="83"/>
     </row>
     <row r="21" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="55"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="3" t="s">
         <v>48</v>
       </c>
@@ -1952,10 +1952,10 @@
       <c r="G21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="87" t="s">
+      <c r="H21" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="55"/>
+      <c r="I21" s="47"/>
       <c r="J21" s="3" t="s">
         <v>53</v>
       </c>
@@ -1970,13 +1970,13 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="84"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="30">
         <v>2.58</v>
       </c>
@@ -2007,11 +2007,11 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="82"/>
-      <c r="B23" s="83" t="s">
+      <c r="A23" s="62"/>
+      <c r="B23" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="84"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="30">
         <v>3.41</v>
       </c>
@@ -2042,11 +2042,11 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="61"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="14">
         <v>2.72</v>
       </c>
@@ -2059,10 +2059,10 @@
       <c r="G24" s="14">
         <v>26.94</v>
       </c>
-      <c r="H24" s="65">
+      <c r="H24" s="66">
         <v>33.78</v>
       </c>
-      <c r="I24" s="66"/>
+      <c r="I24" s="67"/>
       <c r="J24" s="14">
         <v>3.77</v>
       </c>
@@ -2080,10 +2080,10 @@
       <c r="A25" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="14">
         <v>2.29</v>
       </c>
@@ -2096,10 +2096,10 @@
       <c r="G25" s="14">
         <v>20.65</v>
       </c>
-      <c r="H25" s="65">
+      <c r="H25" s="66">
         <v>42.42</v>
       </c>
-      <c r="I25" s="66"/>
+      <c r="I25" s="67"/>
       <c r="J25" s="14">
         <v>3.35</v>
       </c>
@@ -2114,11 +2114,11 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="68"/>
-      <c r="C26" s="69"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="70"/>
       <c r="D26" s="18">
         <v>2.62</v>
       </c>
@@ -2131,10 +2131,10 @@
       <c r="G26" s="18">
         <v>25.55</v>
       </c>
-      <c r="H26" s="70">
+      <c r="H26" s="79">
         <v>35.44</v>
       </c>
-      <c r="I26" s="71"/>
+      <c r="I26" s="80"/>
       <c r="J26" s="18">
         <v>3.68</v>
       </c>
@@ -2149,52 +2149,52 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="50"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="83"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="76" t="s">
+      <c r="C28" s="92"/>
+      <c r="D28" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="78" t="s">
+      <c r="E28" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="78" t="s">
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="L28" s="79"/>
-      <c r="M28" s="80"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="99"/>
     </row>
     <row r="29" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A29" s="52"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="77"/>
+      <c r="A29" s="90"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="96"/>
       <c r="E29" s="35" t="s">
         <v>65</v>
       </c>
@@ -2224,13 +2224,13 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="56"/>
+      <c r="C30" s="101"/>
       <c r="D30" s="5">
         <v>219726.03</v>
       </c>
@@ -2264,11 +2264,11 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="57"/>
-      <c r="B31" s="56" t="s">
+      <c r="A31" s="100"/>
+      <c r="B31" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="56"/>
+      <c r="C31" s="101"/>
       <c r="D31" s="5">
         <v>71079.03</v>
       </c>
@@ -2302,11 +2302,11 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="57"/>
-      <c r="B32" s="58" t="s">
+      <c r="A32" s="100"/>
+      <c r="B32" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="56"/>
+      <c r="C32" s="101"/>
       <c r="D32" s="5">
         <v>4352.05</v>
       </c>
@@ -2340,11 +2340,11 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="59" t="s">
+      <c r="A33" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="60"/>
-      <c r="C33" s="61"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="60"/>
       <c r="D33" s="12">
         <v>295157.11</v>
       </c>
@@ -2382,10 +2382,10 @@
       <c r="A34" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="63"/>
+      <c r="C34" s="88"/>
       <c r="D34" s="12">
         <v>84161.63</v>
       </c>
@@ -2419,11 +2419,11 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="105"/>
       <c r="D35" s="17">
         <v>379318.74</v>
       </c>
@@ -2458,47 +2458,47 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="50"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="83"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="53" t="s">
+      <c r="C37" s="106"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="56" t="s">
+      <c r="G37" s="106"/>
+      <c r="H37" s="106"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
+      <c r="L37" s="101"/>
+      <c r="M37" s="101"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A38" s="52"/>
+      <c r="A38" s="90"/>
       <c r="B38" s="2" t="s">
         <v>78</v>
       </c>
@@ -2517,10 +2517,10 @@
       <c r="G38" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H38" s="56" t="s">
+      <c r="H38" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="I38" s="56"/>
+      <c r="I38" s="101"/>
       <c r="J38" s="2" t="s">
         <v>85</v>
       </c>
@@ -2544,12 +2544,14 @@
       <c r="E39" s="22"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="46"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="104"/>
       <c r="J39" s="22"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
@@ -2561,58 +2563,26 @@
       <c r="E40" s="22"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="46"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="104"/>
       <c r="J40" s="22"/>
       <c r="K40" s="8"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="22"/>
+      <c r="M40" s="22">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A20:M20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:M36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="H38:I38"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="H25:I25"/>
@@ -2629,15 +2599,49 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="A33:C33"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:M36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A20:M20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
